--- a/Basic Excel Tasks.xlsx
+++ b/Basic Excel Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaltandel/Desktop/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CA0643-071C-D746-980B-C99FA5256151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0645D63-7EA8-4C4B-AA91-4E2085FAC883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{3D0B1639-0178-4B8B-A95D-EC195C139D2D}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>MoM %</t>
   </si>
   <si>
-    <t>Compared to Avg</t>
-  </si>
-  <si>
     <t>DISTRIBUTORS</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>MOVIE REVENUES</t>
+  </si>
+  <si>
+    <t>Total Revenue to Avg Revenue</t>
   </si>
 </sst>
 </file>
@@ -310,17 +310,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -345,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5797,7 +5797,7 @@
   <dimension ref="B1:R59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5815,93 +5815,93 @@
     <col min="11" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" style="3" customWidth="1"/>
     <col min="13" max="14" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11" style="3" customWidth="1"/>
     <col min="16" max="16" width="25.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="2:17" s="14" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+    <row r="2" spans="2:17" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>44378</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>44409</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>44440</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <v>44470</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>44501</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <v>44531</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>44562</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="19" t="s">
-        <v>36</v>
+      <c r="Q3" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
       <c r="K4" s="6">
         <v>1023031</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="19">
         <f t="shared" ref="L4:L19" si="0">SUM(E4:K4)</f>
         <v>7591992</v>
       </c>
@@ -5952,11 +5952,11 @@
         <f t="shared" ref="O4:O19" si="3">AVERAGE(E4:K4)</f>
         <v>1084570.2857142857</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="24">
         <f t="shared" ref="P4:P20" si="4">(K4-J4)/J4</f>
         <v>-0.46956274213752996</v>
       </c>
-      <c r="Q4" s="3" t="str">
+      <c r="Q4" s="13" t="str">
         <f>IF($L4&gt;AVERAGE($L$4:$L$19),"Above Average","Below Average")</f>
         <v>Above Average</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="K5" s="6">
         <v>606996</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="19">
         <f t="shared" si="0"/>
         <v>4507412</v>
       </c>
@@ -6009,11 +6009,11 @@
         <f t="shared" si="3"/>
         <v>643916</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="24">
         <f t="shared" si="4"/>
         <v>-0.46711077321243899</v>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="13" t="str">
         <f t="shared" ref="Q5:Q20" si="5">IF($L5&gt;AVERAGE($L$4:$L$19),"Above Average","Below Average")</f>
         <v>Above Average</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="K6" s="6">
         <v>300861</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="19">
         <f t="shared" si="0"/>
         <v>2240742</v>
       </c>
@@ -6066,11 +6066,11 @@
         <f t="shared" si="3"/>
         <v>320106</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="24">
         <f t="shared" si="4"/>
         <v>-0.49047717434747562</v>
       </c>
-      <c r="Q6" s="3" t="str">
+      <c r="Q6" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Above Average</v>
       </c>
@@ -6107,7 +6107,7 @@
       <c r="K7" s="6">
         <v>111241</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <f t="shared" si="0"/>
         <v>731267</v>
       </c>
@@ -6123,11 +6123,11 @@
         <f t="shared" si="3"/>
         <v>104466.71428571429</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="24">
         <f t="shared" si="4"/>
         <v>-0.40594159866706542</v>
       </c>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6164,7 +6164,7 @@
       <c r="K8" s="6">
         <v>1316</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
         <v>55927</v>
       </c>
@@ -6180,11 +6180,11 @@
         <f t="shared" si="3"/>
         <v>7989.5714285714284</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="24">
         <f t="shared" si="4"/>
         <v>-0.42432195975503062</v>
       </c>
-      <c r="Q8" s="3" t="str">
+      <c r="Q8" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="K9" s="6">
         <v>5821</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="19">
         <f t="shared" si="0"/>
         <v>44797</v>
       </c>
@@ -6237,11 +6237,11 @@
         <f t="shared" si="3"/>
         <v>6399.5714285714284</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="24">
         <f t="shared" si="4"/>
         <v>-0.42171666997814422</v>
       </c>
-      <c r="Q9" s="3" t="str">
+      <c r="Q9" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="K10" s="6">
         <v>1246</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <f t="shared" si="0"/>
         <v>38707</v>
       </c>
@@ -6294,11 +6294,11 @@
         <f t="shared" si="3"/>
         <v>5529.5714285714284</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="K11" s="6">
         <v>2671</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="19">
         <f t="shared" si="0"/>
         <v>22657</v>
       </c>
@@ -6351,11 +6351,11 @@
         <f t="shared" si="3"/>
         <v>3236.7142857142858</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="24">
         <f t="shared" si="4"/>
         <v>-0.46105730427764324</v>
       </c>
-      <c r="Q11" s="3" t="str">
+      <c r="Q11" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6392,7 +6392,7 @@
       <c r="K12" s="6">
         <v>1496</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <f t="shared" si="0"/>
         <v>10767</v>
       </c>
@@ -6408,11 +6408,11 @@
         <f t="shared" si="3"/>
         <v>1538.1428571428571</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="24">
         <f t="shared" si="4"/>
         <v>-0.14318442153493699</v>
       </c>
-      <c r="Q12" s="3" t="str">
+      <c r="Q12" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="K13" s="6">
         <v>1296</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="19">
         <f t="shared" si="0"/>
         <v>9117</v>
       </c>
@@ -6465,11 +6465,11 @@
         <f t="shared" si="3"/>
         <v>1302.4285714285713</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="24">
         <f t="shared" si="4"/>
         <v>-3.7147102526002972E-2</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="K14" s="6">
         <v>1256</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="19">
         <f t="shared" si="0"/>
         <v>8897</v>
       </c>
@@ -6522,11 +6522,11 @@
         <f t="shared" si="3"/>
         <v>1271</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="24">
         <f t="shared" si="4"/>
         <v>-0.10028653295128939</v>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="Q14" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="K15" s="6">
         <v>1246</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="19">
         <f t="shared" si="0"/>
         <v>8877</v>
       </c>
@@ -6579,11 +6579,11 @@
         <f t="shared" si="3"/>
         <v>1268.1428571428571</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="24">
         <f t="shared" si="4"/>
         <v>-2.3510971786833857E-2</v>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="Q15" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="K16" s="6">
         <v>1291</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="19">
         <f t="shared" si="0"/>
         <v>8767</v>
       </c>
@@ -6636,11 +6636,11 @@
         <f t="shared" si="3"/>
         <v>1252.4285714285713</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="24">
         <f t="shared" si="4"/>
         <v>3.6115569823434994E-2</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q16" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="K17" s="6">
         <v>1246</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <f t="shared" si="0"/>
         <v>8722</v>
       </c>
@@ -6693,11 +6693,11 @@
         <f t="shared" si="3"/>
         <v>1246</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="Q17" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="K18" s="6">
         <v>1246</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="19">
         <f t="shared" si="0"/>
         <v>8722</v>
       </c>
@@ -6750,11 +6750,11 @@
         <f t="shared" si="3"/>
         <v>1246</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q18" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="K19" s="6">
         <v>1246</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="19">
         <f t="shared" si="0"/>
         <v>8722</v>
       </c>
@@ -6807,70 +6807,70 @@
         <f t="shared" si="3"/>
         <v>1246</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="Q19" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Below Average</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f>SUM(E4:E19)</f>
         <v>1835146</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" ref="F20:K20" si="6">SUM(F4:F19)</f>
         <v>1924926</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <f t="shared" si="6"/>
         <v>1866176</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <f t="shared" si="6"/>
         <v>1832596</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <f t="shared" si="6"/>
         <v>1908986</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <f t="shared" si="6"/>
         <v>3874756</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <f t="shared" si="6"/>
         <v>2063506</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f t="shared" ref="L20" si="7">SUM(L4:L19)</f>
         <v>15306092</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f t="shared" ref="M20" si="8">SUM(M4:M19)</f>
         <v>1782141</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <f t="shared" ref="N20" si="9">SUM(N4:N19)</f>
         <v>3902441</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <f t="shared" ref="O20" si="10">SUM(O4:O19)</f>
         <v>2186584.5714285709</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="25">
         <f t="shared" si="4"/>
         <v>-0.46744878903342557</v>
       </c>
-      <c r="Q20" s="3" t="str">
+      <c r="Q20" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Above Average</v>
       </c>
@@ -6910,14 +6910,14 @@
       <c r="R22" s="9"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>15306092</v>
@@ -7113,13 +7113,13 @@
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="16">
         <v>30612184</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="16">
         <v>257245.24369747893</v>
       </c>
       <c r="E32" s="9"/>
@@ -7166,11 +7166,11 @@
       <c r="R34" s="9"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>42</v>
+      <c r="B35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -7240,10 +7240,10 @@
       <c r="J38"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="B39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="16">
         <v>136661.53571428574</v>
       </c>
       <c r="J39"/>
@@ -7257,11 +7257,11 @@
       <c r="J41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>42</v>
+      <c r="B42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D42"/>
       <c r="H42"/>
@@ -7353,10 +7353,10 @@
       <c r="J49"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="22">
+      <c r="B50" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="20">
         <v>136661.53571428571</v>
       </c>
       <c r="D50"/>
